--- a/0-varios/Archivos-Office/Fiestas móviles.xlsx
+++ b/0-varios/Archivos-Office/Fiestas móviles.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
